--- a/Data Science Test/Train.xlsx
+++ b/Data Science Test/Train.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7223D871-A6D4-43D3-A649-5606CF68DD98}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="8">
   <si>
     <t>YearMonth</t>
   </si>
@@ -39,11 +41,17 @@
   <si>
     <t>Forecubes</t>
   </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>LOG_VALUES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,6 +99,454 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Train!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Train!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>41275.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41306.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41334.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41365.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41395.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41426.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41456.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41487.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41518.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41548.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41579.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41609.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41640.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41671.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41699.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41730.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41760.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41791.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41821.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41852.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>41883.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41913.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41944.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41974.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42005.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42036.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42064.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42095.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42125.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42156.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42186.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42217.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42248.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42278.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42309.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42339.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42370.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42401.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42430.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42461.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42491.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42522.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42552.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42583.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42614.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42644.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42675.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42705.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Train!$E$2:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>7.668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.3092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.5288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.3764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.2776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.8336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.2508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.2552</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.744</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.0356</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.7396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.1432</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.9548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.7664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.5468</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.318</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.6992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.9996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.2956</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.7172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.022</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.242</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.112</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.4484</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.5604</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.6724</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.9592</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.5152</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.5872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0852</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.5784</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.4392</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5424</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.2688</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.336</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.2776</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.2596</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.726</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.08</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>32.1204</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.0172</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.9276</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16.4436</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25.4469</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.8435</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>22.8285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2137273256"/>
+        <c:axId val="2137817016"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2137273256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137817016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2137817016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2137273256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -135,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -170,7 +627,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -347,29 +804,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -380,10 +837,16 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -393,11 +856,19 @@
       <c r="C2">
         <v>201301</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
+        <f>+DATE(LEFT(C2,4),RIGHT(C2,2),1)</f>
+        <v>41275</v>
+      </c>
+      <c r="E2">
         <v>7.6680000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <f>+LOG(E2)</f>
+        <v>0.884682104206025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -407,11 +878,19 @@
       <c r="C3">
         <v>201302</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D49" si="0">+DATE(LEFT(C3,4),RIGHT(C3,2),1)</f>
+        <v>41306</v>
+      </c>
+      <c r="E3">
         <v>10.309200000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <f t="shared" ref="F3:F49" si="1">+LOG(E3)</f>
+        <v>1.0132249650831502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -421,11 +900,19 @@
       <c r="C4">
         <v>201303</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>41334</v>
+      </c>
+      <c r="E4">
         <v>16.5288</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1.2182413246969261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -435,11 +922,19 @@
       <c r="C5">
         <v>201304</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>41365</v>
+      </c>
+      <c r="E5">
         <v>13.3764</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.1263392471759339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -449,11 +944,19 @@
       <c r="C6">
         <v>201305</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>41395</v>
+      </c>
+      <c r="E6">
         <v>20.2776</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.307016551823212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -463,11 +966,19 @@
       <c r="C7">
         <v>201306</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>41426</v>
+      </c>
+      <c r="E7">
         <v>22.833600000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.3585743887954889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -477,11 +988,19 @@
       <c r="C8">
         <v>201307</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>41456</v>
+      </c>
+      <c r="E8">
         <v>15.2508</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.1832926257465932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -491,11 +1010,19 @@
       <c r="C9">
         <v>201308</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>41487</v>
+      </c>
+      <c r="E9">
         <v>19.255199999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1.2845480339141011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -505,11 +1032,19 @@
       <c r="C10">
         <v>201309</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>41518</v>
+      </c>
+      <c r="E10">
         <v>18.744</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1.2728622755889063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -519,11 +1054,19 @@
       <c r="C11">
         <v>201310</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>41548</v>
+      </c>
+      <c r="E11">
         <v>19.170000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.2826221128780626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -533,11 +1076,19 @@
       <c r="C12">
         <v>201311</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>41579</v>
+      </c>
+      <c r="E12">
         <v>13.035600000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>1.115131025584299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -547,11 +1098,19 @@
       <c r="C13">
         <v>201312</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>41609</v>
+      </c>
+      <c r="E13">
         <v>14.739599999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.1684856978954956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -561,11 +1120,19 @@
       <c r="C14">
         <v>201401</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>41640</v>
+      </c>
+      <c r="E14">
         <v>14.1432</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.1505476828067551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -575,11 +1142,19 @@
       <c r="C15">
         <v>201402</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>41671</v>
+      </c>
+      <c r="E15">
         <v>16.954799999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.2292926711764067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -589,11 +1164,19 @@
       <c r="C16">
         <v>201403</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>41699</v>
+      </c>
+      <c r="E16">
         <v>19.766400000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.2959275796575997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -603,11 +1186,19 @@
       <c r="C17">
         <v>201404</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>41730</v>
+      </c>
+      <c r="E17">
         <v>13.546799999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.1318367190871517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -617,11 +1208,19 @@
       <c r="C18">
         <v>201405</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>41760</v>
+      </c>
+      <c r="E18">
         <v>18.318000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.2628780546823055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -631,11 +1230,19 @@
       <c r="C19">
         <v>201406</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>41791</v>
+      </c>
+      <c r="E19">
         <v>16.699200000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1.2226956661231763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -645,11 +1252,19 @@
       <c r="C20">
         <v>201407</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>41821</v>
+      </c>
+      <c r="E20">
         <v>18.999600000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1.2787444578148608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -659,11 +1274,19 @@
       <c r="C21">
         <v>201408</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>41852</v>
+      </c>
+      <c r="E21">
         <v>17.2956</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.2379356326799131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -673,11 +1296,19 @@
       <c r="C22">
         <v>201409</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>41883</v>
+      </c>
+      <c r="E22">
         <v>13.7172</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1.1372654707985499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -687,11 +1318,19 @@
       <c r="C23">
         <v>201410</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>41913</v>
+      </c>
+      <c r="E23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.0791812460476249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -701,11 +1340,19 @@
       <c r="C24">
         <v>201411</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>41944</v>
+      </c>
+      <c r="E24">
         <v>20.021999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.3015074570384364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -715,11 +1362,19 @@
       <c r="C25">
         <v>201412</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>41974</v>
+      </c>
+      <c r="E25">
         <v>13.242000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.1219535835452987</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -729,11 +1384,19 @@
       <c r="C26">
         <v>201501</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>42005</v>
+      </c>
+      <c r="E26">
         <v>11.112</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.0457922327295592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -743,11 +1406,19 @@
       <c r="C27">
         <v>201502</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>42036</v>
+      </c>
+      <c r="E27">
         <v>12.448399999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.0951135348996084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -757,11 +1428,19 @@
       <c r="C28">
         <v>201503</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>42064</v>
+      </c>
+      <c r="E28">
         <v>16.560400000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.219070822527047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -771,11 +1450,19 @@
       <c r="C29">
         <v>201504</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>42095</v>
+      </c>
+      <c r="E29">
         <v>11.6724</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.0671601619231068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -785,11 +1472,19 @@
       <c r="C30">
         <v>201505</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>42125</v>
+      </c>
+      <c r="E30">
         <v>20.959199999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1.3213747018700792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -799,11 +1494,19 @@
       <c r="C31">
         <v>201506</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>42156</v>
+      </c>
+      <c r="E31">
         <v>23.5152</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1.3713486768319179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -813,11 +1516,19 @@
       <c r="C32">
         <v>201507</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>42186</v>
+      </c>
+      <c r="E32">
         <v>11.587199999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1.0639785031369176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -827,11 +1538,19 @@
       <c r="C33">
         <v>201508</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>42217</v>
+      </c>
+      <c r="E33">
         <v>8.0852000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.90769076732492793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -841,11 +1560,19 @@
       <c r="C34">
         <v>201509</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>42248</v>
+      </c>
+      <c r="E34">
         <v>13.5784</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1.132848598213317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -855,11 +1582,19 @@
       <c r="C35">
         <v>201510</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>42278</v>
+      </c>
+      <c r="E35">
         <v>12.4392</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1.0947924505511373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -869,11 +1604,19 @@
       <c r="C36">
         <v>201511</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>42309</v>
+      </c>
+      <c r="E36">
         <v>9.5424000000000007</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0.97965761743688173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -883,11 +1626,19 @@
       <c r="C37">
         <v>201512</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>42339</v>
+      </c>
+      <c r="E37">
         <v>12.268800000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1.0888020868619497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -897,11 +1648,19 @@
       <c r="C38">
         <v>201601</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>42370</v>
+      </c>
+      <c r="E38">
         <v>15.336</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>1.1857120998700061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -911,11 +1670,19 @@
       <c r="C39">
         <v>201602</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>42401</v>
+      </c>
+      <c r="E39">
         <v>20.2776</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1.307016551823212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -925,11 +1692,19 @@
       <c r="C40">
         <v>201603</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>42430</v>
+      </c>
+      <c r="E40">
         <v>23.259599999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.3666022418074562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -939,11 +1714,19 @@
       <c r="C41">
         <v>201604</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>42461</v>
+      </c>
+      <c r="E41">
         <v>21.725999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1.3369797752006554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -953,11 +1736,19 @@
       <c r="C42">
         <v>201605</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
+        <f t="shared" si="0"/>
+        <v>42491</v>
+      </c>
+      <c r="E42">
         <v>34.08</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1.5324995860946624</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -967,11 +1758,19 @@
       <c r="C43">
         <v>201606</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>42522</v>
+      </c>
+      <c r="E43">
         <v>32.120399999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1.5067809449724929</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -981,11 +1780,19 @@
       <c r="C44">
         <v>201607</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>42552</v>
+      </c>
+      <c r="E44">
         <v>35.017200000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.5442814166427694</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -995,11 +1802,19 @@
       <c r="C45">
         <v>201608</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>42583</v>
+      </c>
+      <c r="E45">
         <v>30.927600000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1.4903462198028126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1009,11 +1824,19 @@
       <c r="C46">
         <v>201609</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>42614</v>
+      </c>
+      <c r="E46">
         <v>16.4436</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>1.2159969037744738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1023,11 +1846,19 @@
       <c r="C47">
         <v>201610</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
+        <v>42644</v>
+      </c>
+      <c r="E47">
         <v>25.446899999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1.4056348831405165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1037,11 +1868,19 @@
       <c r="C48">
         <v>201611</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>42675</v>
+      </c>
+      <c r="E48">
         <v>16.843499999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>1.2264323408897655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1051,11 +1890,25 @@
       <c r="C49">
         <v>201612</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>42705</v>
+      </c>
+      <c r="E49">
         <v>22.828499999999998</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1.3584773760927478</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>